--- a/ParkByeongHyeon/TopicClustering/VirtualReality/packages_DBSCAN_clusters(Virtual_Reality).xlsx
+++ b/ParkByeongHyeon/TopicClustering/VirtualReality/packages_DBSCAN_clusters(Virtual_Reality).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>num</t>
   </si>
@@ -28,52 +28,76 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['mrdoob/three.js', 'immersive-web/webxr', 'viromedia/viro', 'reinterpretcat/utymap', 'immersive-web/webxr-samples', 'KhronosGroup/OpenXR-SDK', 'maxxfrazer/RealityUI', 'eseedo/AR-VRCourse', 'viromedia/virocore', 'KhronosGroup/OpenXR-SDK-Source', 'De-Panther/unity-webxr-export', 'ddiakopoulos/polymer', 'maluoi/StereoKit', 'XRFoundation/XREngine', 'Yonet/MixedRealityResources', 'MTASZTAKI/ApertusVR', 'hlrs-vis/covise', 'edoardottt/spark-ar-creators', 'immersive-web/webxr-input-profiles', 'vimeo/vimeo-threejs-player', 'samuelcardillo/WebScreenVR', 'natsuite/NatML', 'cys920622/sudoku-vision', 'KhronosGroup/OpenXR-CTS', 'Svrf/svrf-ios-sdk', 'kinetecharts/openPerform', 'vriajs/vria', 'sayhitosandy/2D-to-3D', 'immersive-web/webxr-gamepads-module', 'JohnCoene/g3r', 'CognitiveVR/cvr-sdk-unity', 'doerlbh/V2R', 'palle-k/GVRSCNRenderer', 'PoCInnovation/Pool2021', 'Yonet/AzureMixedRealityDocs', 'Arjav-Patel/Vuforia-Integration-with-Meta-2', 'wearesimbol/simbol-world', 'RGB-Schemes/Unity-Modern-XR-Sample', 'acidrainstudios/TrueReality', 'seckincengiz/xr', 'ViveSoftware/DoDoFishSRWorksDemo', 'EnoxSoftware/GoogleVRWithOpenCVForUnityExample', 'gmarty/all-saints-ar', 'mherrerabarraza/mapbox-viroreact-point-of-interes', 'HackyRoot/A-Frame-Examples', 'FinchTechnologies/FinchUnitySDK', 'NotionTheory/awesome-xr', 'codemacabre/planetaryxr', 'immersive-web/ar-common', 'Svrf/svrf-javascript', 'Manuvr/Digitabulum-Firmware', 'davidezordan/MixedRealitySamples', 'fvcaputo/virtualtheatre', 'sorianog/xr-applications-tracker', 'garretthogan/ayyyylmao', 'CognitiveVR/cvr-sdk-cpp', 'jinyucn/Video-Streaming-Research-Papers', 'RedHat-Israel/rosvr-client', 'drscotthawley/SoundFieldsForever', 'rajandeepsingh13/6DOF-Mobile-VR-Using-GVR-and-ARCore', 'FlorianJa/BeamLite-Unity', 'roboticeyes/openrex', 'planetareum/Planetareum', 'StephenHodgson/Native-Unity-API', 'ShootingKing-AM/Leap-Gesture-Checker', 'Svrf/svrf-unity', 'rahul6975/Helping-Voice', 'HairyFotr/Liminoid', 'point105-ar/ExampleModels', 'Ailln/EDITH', 'Svrf/svrf-csharp', 'ThoAppelsin/virtual-window', 'nucleartide/AR-Developer-Guide', 'usydtechlab/innovation-week-2018s2', 'hsuanhauliu/RuGo', 'Svrf/svrf-swift4-client', 'ViroCommunity/ideas_and_sugestions', 'philipturner/scene-color-reconstruction', 'shengyu7697/MarkerVR', 'jlcouto/3DFitts', 'khanxc/HoloLens-GGV-Demo', 'prashant-andani/3d-models', 'philipturner/ar-multipendulum', 'philipturner/first-affordable-ar-headset', 'Svrf/svrf-java-client', 'sahil-awasthi/A-Frame-AR-VR-cricket-pitch-', 'karunashi/Equilibrium', 'abhinavsri360/Edukalp', 'heyhellomila/atelier-xena', 'balavenkatesh3322/tensorflowjs-demo', 'DomenicoRomano/ARVRDeploy', 'heyhellomila/atelier-xena', 'balavenkatesh3322/tensorflowjs-demo', 'jspark311/Digitabulum-Firmware', 'UweGruenefeld/OutOfView', 'mattrighetti/DoYouSpeakHolo', 'cognonic/Augmented-Reality-Hololens', 'smann9/story-tracker', 'smann9/story-tracker', 'imanishbarnwal/VR-projects', 'vrajdesai78/Solar-System-using-WebXR', 'crud89/UnrealDR', 'Bulisor/Experiments', 'fibo-hcilab/HCI-LAB', 'inesosoares6/XR-Precision-Analysis', 'Bulisor/Experiments', 'HeyAnirudh/EDU-AR', 'Stefanc23/Virseum', 'luiscarbonell/hackathon.nbcuniversal_2019.yories', 'NelloJoint/Spark-AR_RGB-Face', 'BrickviewStudios/brickviewstudios.github.io', 'sayhitosandy/Augmented_Reality_HW', 'c-ar-d/cARdViro', 'pwy1608/Holoterior', 'luiscarbonell/hackathon.nbcuniversal_2019.yories', 'NelloJoint/Spark-AR_RGB-Face', 'Yonet/HoloLensUnitySeedProject', 'NavpreetDevpuri/mindroom', 'catherinesyeh/catherinesyeh', 'jamiebeach/WebXR', 'eleanor-studio/photon.webxr', 'philipturner/arheadsetkit', 'SpaceGold/spacegold.github.io', 'codymorrison/basics', 'ILLIXR/illixr.github.io', 'rasicci/rasicci.com', 'Clifford-Beta/adaptive-beamforming', 'Williano/Unity3d', 'Williano/OpenGL', 'Guilospanck/TCC_pdfVersion', 'wilsonwong13/ShapeShareVR', 'Calipfaith/VR-MadHouse']</t>
-  </si>
-  <si>
-    <t>['tzachari/cordova-plugin-webxr', 'tzachari/cordova-plugin-webxr']</t>
-  </si>
-  <si>
-    <t>['microsoft/MapsSDK-Unity', 'rurre/PumkinsAvatarTools', 'rjth/Punchkeyboard', 'dag10/HoloViveObserver', 'mobfishgmbh/Cardboard-VR-Unity-SDK', 'vmware-archive/vr-dc-ex', 'owlboy/greatpug-public', 'adrenak/UniVRMedia', 'mnrmja007/awesome-virtual-reality', 'IBM/vr-speech-sandbox-rift', 'vladkol/MediaPlayback', 'chandler767/Magic-Leap-Gesture-IoT-Example', 'MahmudulAlam/Fingertip-Mixed-Reality', 'RGB-Schemes/Rift-Poke', 'RootSoft/Oculus-Quest-Setup', 'scott0123/1-HP-Wizard', 'kevinforrestconnors/OutcropVR', 'VR-Tracker/Plugins', 'walidabazo/Unity-walkthrough-', 'lucascoelhof/VoronoiUnityTeleoperation', 'Jamy4000/VRSF_Hybrid_ECS', 'ravenblu/LeafVR', 'ddoak/peppy', 'chandler767/Cube-Fight', 'johannesridho/simple-vr-app', 'VRcheology/VRcheology.github.io', 'tmitro/ucf-ist-redirected-walking', 'sohail0992/basketBallGame', 'andrewsoohwanlee/Cracking-the-Egg', 'defund/imucap', 'mingwho/valleyofthewind', 'realitystudios/Quest-VRTK-Boilerplate', 'asemahassan/3DPuzzleVR', 'tentacode/Cubyrinth', 'aryansingh12/Virtual-Reality-Classroom', 'DevPika/cubismvr-level-editor', 'kevin-bruhwiler/Kowloon-Unity-Client', 'dtmacroh/rooting-for-you', 'BerwinZ/VR_Fitness_Bike', 'sintefneodroid/XR', 'JoyceStick-BC/JoyceStick', 'sintefneodroid/XR', 'doubleZ0108/Soul-Maze', 'GioStamoulos/Car_Vr_Game', 'JoseRamonMartinez/Unity_VR_ForkLift_Simulator', 'DauteRR/VRMaze', 'satchpuri/Castle_SilVR', 'tterpi/VRSketchingGeometry', 'NgoJunHaoJason/CZ4001', 'JamesTang2905/Individual-Project-2017-18', 'CavalcantePedro/AR_Plus_VR', 'Sweet-Potato-Studio/Beatsaber_sortalike-VR', 'Nesbi/PsyWueVR', 'MahmoudSabra1/MonsterGo-VR-game', 'manjogsingh/VR-Puzzle', 'Takichiii/JustDanceRevolution', 'Sky0023/Virtual-Museum', 'chuanenlin/ollie-vr', 'chuanenlin/ollie-vr', 'athena-app/athena-android', 'lorenzo-stacchio/Virtual_Augmented_Reality_Lab', 'blessingoraz/Udacity-carnival', 'Jack-Pettigrew/Unity-VR-Gesture-Based-Interaction-System', 'ManasUniyal/Friday', 'FilipePires98/CinematicVR-ProductionTool', 'sorianog/RollABallVR', 'iansmathew/Infinity-Rush-VR-Sem3', 'HTWK-18INB-1/harae', 'ameliacode/ColoringPotVR', 'sorianog/RollABallVR', 'iansmathew/Infinity-Rush-VR-Sem3', 'HTWK-18INB-1/harae', 'ameliacode/ColoringPotVR', 'DLozanoNavas/VRNetworking', 'kingdomax/vr-bomb', 'defritz/VirtualRealityProjects', 'maxkung101/JohnLeeVR', 'jameshenderson12/covirr-effective-communication', 'ashdavies/unity-starter-projects', 'Fizzr/CampfireVR', 'azurast/DichromaVR', 'Aynur19/Unity_XR-Quest', 'Fizzr/CampfireVR', 'ashdavies/unity-starter-projects', 'Aynur19/Unity_XR-Quest', 'azurast/DichromaVR', 'StaneCobalt/Udacity-VR', 'gpvigano/OpenVISDIVE', 'Djmcflush/Nero-Intelligence', 'ela-ine/intro-to-VR-ShootHoops', 'hjmh/unityvr', 'PhilToolan/Final-Year-Project', 'shopped/VR-FoodAdventure', 'Jack-C-Lloyd/Seequencer', 'Simon-Weng/Virtual-Reality-Labatory', 'bharathkumarms/maze-play', 'TroyFernandes/ESCAPE', 'mirkomantovani/BubbleVR', 'dhrumilp15/UnityVRStreaming', 'aytona/VRScrollingUI']</t>
-  </si>
-  <si>
-    <t>['relativty/Relativty', 'ExtendRealityLtd/VRTK', 'bjornbytes/lovr', 'AsPJT/DungeonTemplateLibrary', 'aestheticinteractive/Hover-UI-Kit', 'omgmog/uxofvr.com', 'favreau/Sol-R', 'ViveSoftware/ViveInputUtility-Unity', 'letoram/safespaces', 'icosa-gallery/open-brush', 'vircadia/vircadia', 'JScott/ViveGrip', 'Vivero/Kerbal-VR', 'ShootingKing-AM/PhoneVR', 'terminal29/Simple-OpenVR-Driver-Tutorial', 'dabeschte/VRArmIK', 'immersivecognition/unity-experiment-framework', 'TrackLab/ViRe', 'KevinSmall/blockchain3d', 'jbaicoianu/janusweb', 'microsoft/spatial-computing', 'alatnet/OpenPSVR', 'kondrak/oculusvr_samples', 'mauricesvay/awesome-vr-ux', 'okawo80085/hobo_vr', 'amazingandyyy/vr-player', 'qualisys/Qualisys-Unity-SDK', 'MoonMotionProject/MoonMotion', 'ColumbiaCGUI/MercuryMessaging', 'taurenshaman/awesome-3d', 'tobiasbueschel/virtual-reality-tour', 'CognitiveVR/cvr-sdk-unreal', 'timdecode/LifeBrush', 'vivalite/VRArcadeSoftware', 'ViveSoftware/ViveStereoRenderingToolkit', 'harfang3d/vr-python-quickstart-hg1', 'kondrak/quake_bsp_viewer_vr', 'ubisoft/vrtist', 'void4/FireVR', 'HadesVR/HadesVR', 'erosmarcon/vr-keyboard', 'DLR-SC/island-viz', 'charliegerard/daydream-node', 'alanplotko/EscapeTheRoomVR', 'corycorvus/VIVE-Tracker-Wiki', 'sfhacks/Virtual-Reality-Drone', 'KhronosGroup/OpenXR-Hpp', 'YagoLopez/react-aframe-typescript-boilerplate', 'diglungdig/Simple_Note_VR', 'campfireunion/NewtonVR-Multiplayer', 'olir/Frankenstein', 'Tobbse/AnotherBadBeatSaberClone', 'DanielRBowen/UE4-VRHands-Template', 'marssociety/mdrs_beechner-hartman', 'mytechnotalent/KevinSaber', 'VR-Robotica/AvatarComponents', 'WaleedYaser/Anubis-Maze-VR', 'TenteEEEE/IPD-Relativty', 'geshii/Awesome-Virtual-Reality', 'spammaleros/ALMP_Template', 'jzitelli/poolvr.py', 'zarik5/PhoneVR', 'AndreZenner/notifications-framework', 'willneedit/AltSpaceMREs', 'VirtualRealityDesigner/ARCHIVED_04_Squashy_Toad_VR', 'urish/t-rex-vr', 'AndreZenner/shifty', 'capnmidnight/Juniper', 'excessive/lovr-haxe-wrappergen', 'VirtualRealityDesigner/03_ShootHoop', 'AndreZenner/hand-redirection-toolkit', 'TheFitzZZ/DCS-Config-Manager', 'powermobileweb/Kerbal-VR', 'ErickSimoes/EscapeMuseumVR', 'dilmerv/NextMindDemos', 'Jordonbc/VREngine', 'Barliesque/HandsOnVR', 'visionn/crespi', 'PinkMilkProductions/VirtualFortress2', 'Ajedi32/echovr-api', 'debowin/ironman-vr', 'Zuehlke/SharedWhiteboard', 'JordanMajd/within_vr_downloader', 'cog-ethz/EVE', 'EugeneTel/PistolWhip-UE4', 'nwchinn/Cardboard-Viewer', 'WebFreak001/OpenVR-D', 'DanielRBowen/UE4-VR-XPlatform-Menu', 'AndreasRoither/Virtual-interaction-library', 'alatnet/libpsvr', 'gpvigano/VRTK-GearVR-Test', 'powermobileweb/VRTK', 'echeese/Quakespasm-OpenVR', 'lowtalkers/escape-reality', 'brianpeiris/ChordVR', 'walidabazo/Tutorial-Unity-and-Vuforia-Realistic-Shadows-on-Augmented-and-Virtual-reality-', 'csiro-scientific-computing/vr-ui', 'markbrouch/plex-vr', 'computationalcore/vin-carnival', 'rodrigooler/react-vr-sample', 'onlyuser/MMDLoader', 'Zetaphor/ovrt-helper', 'GitTibbe/Mc-Simulator-with-VR', 'semihsmg/GloVR', 'VirtualRealityDesigner/02_GoHome', 'pleonex/dds-unity', 'vrlfp/vrlfp', 'ahmetozlu/unity_camera_movements', 'aardvark-community/aardvark.vr', 'Gracken-GrackGames/SimpleVRUI', 'TCLResearchHK/VRWorkshopCityU', 'yaomtc/VR-on-Linux', 'defcon201/xrdesktop', 'dyanikoglu/VRChef', 'Schrodinger-Hat/xmas-crystal-ball-threejs', 'indyfree/MoleculeVR', 'NoahOrtega/NMSVRscreenshotfix-GUI-Version', 'Yoshey/AdvancedMovement', 'machuiwen/Digimon-Adventure-VR', 'cabustillo13/Robot-Scara', 'jbecke/VR-Vendor', 'corycorvus/Eye-Tracking-Wiki', 'corycorvus/Eye-Tracking-Wiki', 'haroldma/nucleus3d', 'Kirbyrawr/Ethereal-VR', 'syncrocat/UnityVRSMN', 'urish/valentines-vr', 'mytechnotalent/VRPong', 'arminkz/EyeTrackingVR', 'amalon/osgXR', '0fficerMike/Ragdoll-Playground', 'SEKCJ/G_Hall', 'BernwardWeigand/UnityUIToolkitXRAdapter', 'ishkapoor2000/DivyaChitta', 'FannyChao/VPT360', 'gdedi001/ModernApartment', '13rac1/Roll-a-Ball-VR', 'ErlerPhilipp/VR_DA', 'diglungdig/Surrealism-Replica-VR', 'VPRL/Virginia-Philosophy-Reality-Lab', 'diglungdig/Surrealism-Replica-VR', 'DomSleightholme/VRAssaualtCourse', 'VirtualRealityDesigner/04_SquashyToad', 'JoanCharmant/SharpQuill', 'MIEC/vr-tsst', 'alexlitel/vr-resume', 'Super-Lovers/chem-risk-vr', 'webb04/MoneyBuddy', 'ThomasTerp/hla-vending-shop', 'vrapeutic/vrapeutic.github.io', 'zmaqutu/vr-doctor', 'chrissbarr/VR-GCODE', 'liyuechun/react-vr-demos', 'Zynced/Vision', 'amannirala13/Arduino-NodeJS-360-Video-Player', 'Curran-H/Aleph-Online', 'Snowapril/VRoomEditor', 'amalon/flightgear-vr', 'QuestionWhatsReal/VRone-SDK', 'alpertucanberk/Handtracking-Whiteboard-Oculus', 'danmaq/Swing', 'mnixo/nuxeo-vr-hackathon', 'krypten/OldMuseumVR', 'FannyChao/AVS360_audiovisual_saliency_360', 'marianhlavac/immersion-vr', 'VRKnock/VRKnockServer', 'fgadea/invaderInVR', 'EricBatlle/VR_GalleryApp', 'DigitaltInnovationscenter/Platsbanken-VR', 'Whide/vr-guidelines', 'dastasoft/escape_from_the_pabe_vr', 'electricganesha/VR-PUSHRide', 'PluralityNET/PluralityNET_VR', 'devshank3/Twillin', 'sayakbiswas/BranchToolVR', 'Whide/vr-guidelines', 'dastasoft/escape_from_the_pabe_vr', 'hiteshsahu/Hello-ReactVR', 'giantdem/BasketballVR-Unity', 'amalon/OpenSceneGraph', 'brianpeiris/life-xr', 'jmarco2000/The-Sentinel-VR', 'nkalavak/InsightVRModule', 'nkalavak/InsightVRModule', 'perseids-project/treebank-vr', '1runeberg/VRHiddenAreaMaskPreviewer', 'kolibrid/GeneNet-VR', 'lilianmallardeau/Homemade-BeatSaber', 'brittishsnow/CMPT401_Learned_Owls', 'davidezordan/Build-an-apartment', 'EyalMaoz/Pinch_Rehabilitation_VR_Personalized_Treatment', 'lvcarx/virtual-reality-shop-concept', 'JulioMontas/Virtual-Reality-Planet', 'MKme/VR', 'Toscan0/IST-RV', 'ysoroka/VR-Rollercoaster', 'jhgrins/Leap_Motion_VR_Edu_Game', 'marianhlavac/immersion-vr-agent', 'mytechnotalent/K-Blackjack', 'CristianAricapa/VR_StaticMovement', 'marianhlavac/immersion-vr-agent', 'eipm/unity-workshop', 'mytechnotalent/K-Blackjack', 'CaptainDreamcast/SloMoDo', 'davidezordan/RubeGoldberg', 'tenhobi/BI-VR1', 'JaredP94/Unreal-VR-Artist', 'Minipeps/VR_Chemist', 'GlassedSilver/magisk-module-daydream-for-sony-f5121', 'AtifMahmud/VRLivestream', 'LitttleLeah/haptechs', 'milkdoes/PhobiaManagerVR', 'WebVoxel/plugin-webvr', 'VRKnock/VRKnockBridge', 'hajekjiri/neanderthals-vr', 'nightscout01/ContainmentBreachVRBlink', 'dianakdev/0x0B-unity-vr_room', 'milkdoes/PhobiaManagerVR', 'GufisYT/Pedrosimo', 'WebVoxel/plugin-webvr', 'hajekjiri/neanderthals-vr', 'VRKnock/VRKnockBridge', 'nightscout01/ContainmentBreachVRBlink', 'dianakdev/0x0B-unity-vr_room', 'klingo/fhnw-mt-vr', 'ErickSimoes/PuzzleSimonSays', 'ErickSimoes/maze_vr', 'EiT-VR-2017-Gruppe-2/EV3-code', 'Premanand88/VR-Maze', 'Solla/VRControllerVibrationDisabler', 'COVISART/VirtualExpo', 'Ameya05/DartsArena', 'aomnes/Projet_VI50_UTBM', 'achyutb6/Sensory', 'eg0nSpengler/SmashTeeVeeVR', 'hajekjiri/duckshooter-vr', 'omimo/oVRView', 'reubenkcoutinho/InformationBoothVR', 'Maccauhuru/React-Virtual-Reality', 'DLR-SC/cnn-vis-vr', 'murcoder/bottle_shooter_vr', '4A-50/OSVU', 'Mrgove10/Unity-VR-template', 'kevinadhiguna/pesona-laut-unity', 'salonikalra/VFM', 'ubcemergingmedialab/ScholarsVR', 'VRKnock/VRKnockApp', 'anukritijha246/Virtuary', 'museum4punkt0/VR-Gaze-Menue', 'br66/Camp-Wario', 'slashgk/Monster-Go-VR', 'stinodes/fuvr', 'Soludus/Soludus2Enercity', 'achyutb6/3D_VR_Environment', 'ChongzhengZhao/Research-on-Sponge-City-Construction-Based-on-GIS-VR-and-BIM', 'omorest/Proyecto_Final_II', 'miktadtahir/ue4VRarchitectureHQ', 'andresilmor/Interaction-with-360-image-elements', 'rohvani/hifi-scripts', 'joshua-friede/Internet-of-Followers', 'euccas/udacity-vr', 'ticknerr/aframe-react-staircase-example']</t>
-  </si>
-  <si>
-    <t>['aframevr/aframe', 'playcanvas/engine', 'aframevr/awesome-aframe', 'supermedium/aframe-react', 'supermedium/superframe', 'exokitxr/exokit', 'networked-aframe/networked-aframe', 'aframevr/a-painter', 'aframevr/aframe-inspector', 'IdeaSpaceVR/IdeaSpace', 'immersive-web/webxr-polyfill', 'OpenNewsLabs/guri-vr', 'vizorvr/patches', 'hggeorgiev/CentroUI', 'teliportme/remixvr', 'immersive-web/webvrrocks', 'aframevr/a-blast', 'michaltakac/mathworldvr', 'aframevr/aframe-registry', 'liyasthomas/lvr', 'marpi/resonate', 'luiguild/aframe-svg-extruder', 'exokitxr/exokit-web', 'marpi/worlds2', 'marpi/immersive', 'exokitxr/exokit-browser', 'marpi/vr', 'kuixu/VRmol', 'disasteroftheuniverse/SuperQuest', 'teliportme/remixVR-moved', 'Yonet/WebVRExamples', 'marpi/camp', 'VRRollerCoaster/VRRollerCoaster.app', 'immersive-web/webvr', 'Utopiah/aframe-persist-component', 'Erkaman/regl-webvr-demo', 'Erkaman/regl-webvr-demo', 'janusvr/janusweb', 'acerwebvr/acerwebvr.github.io', 'primaryobjects/unity-to-aframe', 'PlumCantaloupe/circlesxr', 'grodno-vr/grodno-vr.github.io', 'marpi/black_rain', 'TCLResearchHK/VRWorkshopHKOSCon2017', 'ltfschoen/react-fluxible-test', 'alvinwan/ergo', 'VRRollerCoaster/WebVR.Space', 'bntzio/tour-aframe', 'Utopiah/aframe-soccer', 'WebVRRollerCoaster/VRRollerCoaster.app', 'mrhegemon/xrNFT', 'Utopiah/StoryboardVR', 'marpi/eutow', 'GeekyShiva/Talks-and-Workshops', 'lchsam/F123', 'Utopiah/aframe-slides-controls-component', 'sjcobb/lake-hylia', 'sjcobb/lost-woods', 'Utopiah/vrify', 'Utopiah/vrify', 'Physicslibrary/Threejs-VR-Curiosity-Navcams', 'uglykiki/visatopia.xyz', 'Physicslibrary/Threejs-VR-Hipparcos', 'zomboh/vuppets', 'MaksumRifai/kumparan-ar', 'connorshea/vglist-vr-viewer', 'a7ul/VRDemo', 'Physicslibrary/Threejs-WebXR-67P', 'jayber/wevr', 'jayber/vrlobby', 'sjcobb/fire-temple', 'Physicslibrary/Threejs-VR-Physics', 'primaryobjects/UnityAFrameExporter', 'petewarrior/pwtweetar-aframe', 'MaksumRifai/dh-vr', 'mbrickn/FUNKY-VR-PACHINKO', 'andyli/AFrameExtern', 'noxo/yle-areena-webvr-player', 'noxo/yle-areena-webvr-player', 'andyli/AFrameExtern', 'elocnatsirt/off-killter', 'brianchirls/mit2016', 'realitypipe/webvr-sample', 'spiritphyz/Immerse-VR', 'gdedi001/BrightU-VR-Prototype', 'vmcreative/Jabberwock_Studio', 'zoonk/vr-experiments', '3DRudder/babylonjs-3dRudder', 'kushaangupta/Roboclub']</t>
-  </si>
-  <si>
-    <t>['RGB-Schemes/RGB-Haptics-Issues', 'RGB-Schemes/RGB-Haptics-Issues']</t>
-  </si>
-  <si>
-    <t>['iamtomhewitt/vr-fighter-jet', 'iamtomhewitt/vr-fighter-jet', 'nimarek/Contextual-Cueing-Unity', 'CorneliusCornbread/LAUNCH-Camera-Toolkit', 'nimarek/Contextual-Cueing-Unity', 'CorneliusCornbread/LAUNCH-Camera-Toolkit', 'sayhitosandy/Survival_Shooter_Game', 'sayhitosandy/Survival_Shooter_Game', 'VirtualRealityDesigner/ARCHIVED_02_GoHome', 'VirtualRealityDesigner/ARCHIVED_02_GoHome', 'gdedi001/MazeVR', 'JeffreyHsieh/CS179I', 'jaks19/Augmented-Reality-Google-Glass-Safari-Game', 'klingo/fhnw-mt-prototype', 'RedHawkVR/MysticArts101', 'jaks19/Augmented-Reality-Google-Glass-Safari-Game', 'gdedi001/MazeVR', 'JeffreyHsieh/CS179I', 'klingo/fhnw-mt-prototype', 'RedHawkVR/MysticArts101', 'gdedi001/TicTacToe', 'mirkomantovani/AR-Eat-it', 'gdedi001/TicTacToe', 'mirkomantovani/AR-Eat-it']</t>
-  </si>
-  <si>
-    <t>['bulletphysics/bullet3', 'maartenbreddels/ipyvolume', 'letoram/arcan', 'the3deers/android-3D-model-viewer', 'fabio914/RealityMixer', 'matryx/calcflow', 'Project-Splinter/MonoPort', 'leapmotion/UnityModules', 'Jasonnor/Car-Simulator', 'cosmoscout/cosmoscout-vr', 'fpw/avitab', 'mgschwan/VRWorkout', 'Moving-AI/virtual-walk', 'tiero/react-native-360', 'GPUOpen-ProfessionalCompute-Libraries/MIVisionX', 'NitishMutha/equirectangular-toolbox', 'facebookresearch/HVVR', 'kwonoh/ImsvGraphVis', 'WenlinMao/android-3d-model-viewer', 'IBM/vr-speech-sandbox-vive', 'uic-evl/omegalib', 'SDraw/roc_engine', 'danielesteban/blocks', 'OpenCollar/opencollar', 'tana/Mondeto', 'picorana/VR_audioscape', 'vistle/vistle', 'kotlin-graphics/bullet', 'KinectToVR/k2vr-application', 'Christian1984/vfrmap-for-vr', 'leetvr/hotham', 'IBM/vr-speech-sandbox-cardboard', 'jherico/OpenXR-Samples', 'gilcoder/AI4U', 'mondradiko/mondradiko', 'CAOR-MINES-ParisTech/colibri-vr-unity-package', 'YagoLopez/vrview-react', 'KinectToVR/k2vr-installer-gui', 'aaron-marcus/cybernetic-landscapes', 'hgabor47/VRPrelimutensDesktop', 'NikolaySuslov/livecodingspace', 'phoenixbf/aton', 'cinderblocks/radegast', 'marpi/worlds', 'chrislarkee/VR-Neuroanatomy', 'gruberdev/vr-resources', 'alvinwan/mirrorvr', 'TheLogicMaster/Tower-Defense-Galaxy', 'Ajedi32/echovr_api_docs', 'alvinwan/aframe-low-poly', 'vasturiano/aframe-globe-component', 'felixkosmalla/unity-vive-reality-mapper', 'EOSVR/EOSVR', 'xen0bit/muvr.xyz', 'liyuechun/awesome-react-vr', 'GameLabGraz/Maroon', 'osudrl/OpenVR-Tracking-Example', 'Fundacio-i2CAT/ImAc', 'Vytek/MayaVerse', 'TefiC/wtm-udacity-scholars-nanodegree-resources', 'Ideasis/VivoosVR', 'Charmve/TimeWarp', 'Vytek/WaterVRTest', 'Twometer/twometer-vr', 'urish/vr-hero-aframe', 'azhirnov/ModularGraphicsFramework', 'danielesteban/trolltower', 'rudrajikadra/Virtual-Reality-Tour-Unity-3D-World-Tour', 'cozcinar/omniAttention', 'PyrusMed/Pear-Interaction-Engine', 'rarora7777/MagicalHands', 'miguelleitao/btosg', 'Ohara124c41/Udacity_Projects_Master_Repo', 'USCCACS/GEARS', 'KinectToVR/k2vr-installer', 'chrise96/3D_building_reconstruction', 'm-hasan-n/hlp', 'stealthybox/vr-swarm', 'menchelab/VRNetzer', 'ByfrostVR/HeartstoneVR', 'Vytek/MayaVerse03', 'alvinwan/lightful', 'celestiary/web', 'sariug/mpfluid_cave_frontend', 'wescotte/distortionizer-SteamVR', 'klngbhn/RDW_CurvedPathConfigurator', 'maine-imre/handwaver', 'LokiResearch/RayCursor', 'Devansh-Agarwal/Multi-Dimensional-Data-Visualizer-VR', 'thestr4ng3r/towerengine', 'flight-rs/flight', 'space-chat/space-chat', 'cronkite-asu/Neighborhood-DataVR', 'hgabor47/vrpd_windows', 'cocomr/coco', 'ucsdlib/geiselVR', 'vrapeutic/EllieTale-WebXR', 'AndroidHMD/TowerVR', 'CreoverseTeam/CreoversePublic', 'georgezoto/Virtual-Reality-Nanodegree', 'gregorsamsa183/VirtualReality_2Dto3D', 'Devoxx4KidsDE/workshop-maze-vr', 'CarlKenner/DOOM-3-BFG-VR', 'nayanseth/vr_cricket', 'Anna-Henson/Wake_CMU_Thesis', 'anilbey/HandVisualiser', 'BritishMuseum/DH-OculusVR-models', 'anubhavp28/VR-Play', 'leoll2/eMotion', 'groverkimi/kodiaddon', 'kliments/TitanicVR', 'COVID-19-AI-Research-Project/Oculus-Rift-Detection-System', 'Ishaan28malik/Virtual-Conf-List', 'harrybanda/VirtualCoderScripts', 'sandsmark/linux-vr-player-or-something', 'antoniohof/aframe-text-texture-component', 'ebadier/ViveTrackers', 'ameliacode/Fine-Art-Virtual-Exhibition', 'ArrayCoreDevelopers/Array', 'AvatarZZ/AvatarZZ', 'simon-gunacker/vive', 'Physicslibrary/ARKit-Stereoscope-CDEM', 'c2m2/Neuro-VISOR', 'xiajenny/CAVE-Camera-Rig-Prefab', 'gdedi001/Night-at-the-Museum', 'ietheredge/VisionEngine', 'josecyc/Neurotron', 'Cesarsk/Android-QR-Code-on-AR', 'buchou/tsuki', 'neonmoe/solitude', 'Ho-Lab-Colostate/webchemvr', 'stuartmead/CloudBoard', 'adityadua24/Protein-VTKopenVR', 'arunanto3116/pokemonVR', 'alvarosg88/Talk-to-the-Bot', 'robindsyang/LoBSTr', 'hupili/hhba2016-argentina-vote', 'UweGruenefeld/PeriMR', 'Shenc0411/FlightSimulator', 'buchou/karabako', 'buchou/karabako', 'fang-w-shen/Galaxy-VR', 'kanchan88/snapchat-like-shades-filter', 'DanielTk26/3D-Web-VR-Solar-System', 'Electrostatics/VR', 'yitzikc/mre-alarm-timer', 'hyperdelia/hex002-womb', 'AndreaMaffe/Physics-for-Dummies', 'MihirSrivastava-tech/V-One', 'koushik-elite/Simple-Room', 'rsk5492/Night-at-a-Museum-VR', 'MjStrwy/RiverfrontVR_VRTK', 'xeliot/Perspective', 'MjStrwy/RiverfrontVR_VRTK', 'em-fong/chill-out-aframe', 'mlevin2/proxima', 'spamchurch/isthisabookclub', 'ariannagavioli/corona-shoot', 'prampey/BrainShift', 'markoshorro/look-around', 'rarora7777/smooth-closest-point', 'sluger/CaveDNAVis', 'v-octal/escape', 'tongji-cdi/mr-platform', 'pavancm/Stitched-Image-Quality-Evaluator', 'V-Sense/omniAttention', 'lromerio/SpyVR', 'rarora7777/smooth-closest-point', 'V-Sense/omniAttention', 'Physicslibrary/ARKit-Stereoscope-67P', 'lromerio/SpyVR', 'utkarshShwetam/house-tour-VR', 'cyliang/FIVE', 'CSM-Dream-Team/final-project', 'Ajedi32/echovr-tray-tool', 'marianhlavac/openhvr', 'dfgHiatus/hiatusMenu', 'electricganesha/IBO-video', 'Fakhri/vr-trading-prototype', 'dylanede/ovr-sys', 'SurferJim/BioMight', 'Chainsawkitten/Deathcap', 'AurelienGttn/DrumVR', 'Daniel2193/PSVR_JoyCon_VR_Bridge', 'COS301-SE-2021/AR-VR-GAN', 'JoyceStick-BC/JoyceStick-Website', 'nauaneed/OrbitPropagator', 'Henrynaut/UnityBase', 'kongmunist/alteredperceptions', 'sarafinmahtab/360-Virtual-Tour', 'bhavyejain/BeatSaber', 'nanome-ai/nanome-lib', 'averyfollett/vrcade', 'racmeh/Universe-in-Virtual-Reality', 'Mrbanano/Vr-island', 'Juandavid716/Virtual-reality-cartesian-map', 'kristol07/vr-homework', 'lukereichold/Asteroids-3D', 'OlafHaag/UE4-ReachTask', 'Call-for-Code/DamageCheck', 'The-Painkiller/UnrealVRShooter', 'bobvanluijt/Sumikko-Gurashi-VR-app', 'shannonturner/aclearnight.com', 'vivekghanchi/VRRajasthan', 'ChristianMurphy/respondvr-ui', 'mortennobel/SimpleVRCpp', 'davep/slstats.el', 'MicheleMallia/XVR-VirtualMuseum-PROJECT-MASTER-THESIS-', 'onejgordon/cec_vr', 'HugoFara/Lendemain-Soiree', 'kliments/VRaid', 'thetestgame/panda3d', 'KarjamP/NDEYSS', 'aayush-ag21/Virtual-Reality-Arm', 'AfterdarkGayveloper/VRHusbando', 'fang-w-shen/Virtual-Portfolio', 'sayhitosandy/Airplane_Exploration_Setup', 'mayankrastogi/EveryDayIsHalloween', 'Physicslibrary/ARKit-Stereoscope-Hipparcos', 'thephox1982/terranova-engine', 'dartmouth-cs98/20w-ensemble-vr-score-following', 'thoreauA/cybercarpet-walker-position-control', 'fernand0aguilar/flowers-vr', 'eltrompetero/perception_neuron', 'sainiajay/Home-Decor', 'dvpermyakov/vr-sample-android', 'vishrantgupta/Virtual-Reality-Oculus-Rift', 'YogiOnBioinformatics/ProteinVR', 'ckevar/XVR-sublime', 'travisk23/Capstone_Source_Attribution_Analysis', 'MetaFactoryAI/wearables-nfts', 'ExplorViz/explorviz-frontend-extension-vr', 'cidelab/VRGenerativeArt', 'fernand0aguilar/flowers-vr', 'eltrompetero/perception_neuron', 'caseytrombley/react-vr-space', 'salepape/collaborative-scatterplot-rendering', 'angrammenos97/OpenCV-VR-Controllers', 'chizhang529/vr-the-island', 'Jamesfleming1/JamesGlove', 'agarwalkaushal/Math-VR', 'jeevitha27/ResearchProjectTrackingVR', 'cflaviu/CRYENGINE', 'ProVR-Norway/ProvrUE4', 'Haitons/VR_Project', 'Maccauhuru/HouseTourVR-React360', 'ArunJRK/city-review-unity-project', 'mdingena/att-voodoo', 'MohitKumavat/Ego_Jenga', 'mdingena/att-string-transcoder', 'Haitons/VR_Project', 'Maccauhuru/HouseTourVR-React360', 'mad-lab-fau/StroopRoom', 'ArunJRK/city-review-unity-project', 'nsalminen/HMDRemoval', 'Hanzo296/VR_Unreal_LeapSensor', 'vtcity/wiki', 'gdedi001/Performance-Bounceback', 'horizon-research/svr-streaming-system', 'brainhack-ch/vr-ms', 'HadesVR/Wand-Controller', 'PierreGe/VR-Picture-Browser', 'MMC-Scholars/VRBase', 'hgabor47/vrpd_android', 'kliments/Master-s-thesis', 'aiial/all-detection-system-for-oculus-rift', 'PierreGe/VR-Picture-Browser', 'hgabor47/vrpd_android', 'MMC-Scholars/VRBase', 'kliments/Master-s-thesis', 'SonalSavaliya/Brain-Signal-Authentication-for-Human-computer-Interaction-in-Virtual-Reality', 'henriheimann/rollivr', 'jarosado0911/jarosado0911', 'ioio-creative/Solar-System', 'v-octal/Puzzler-ASpaceAdventure', 'Physicslibrary/Threejs-VR-Sensors', 'Ys-sudo/puuf-vr-project', 'MaksumRifai/hacktiv8-ar', 'HSAnais/Cybersickness-mobileVR', 'bekasidev/vr', 'jonlourie/unirxScriptSamples', 'kujyp/WebVR', 'tedjames/viroGame', 'talpallikar/vr-motion-analysis', 'charu29/Hackathon-5.0', 'barlettacarmen/FeelingsMatter', 'MMC-Scholars/TheGreatBalloonRace', 'hubertben/Virtual-Reality-Term-Project', 'almasud/Virtual_Voice_Assistant', 'danielborbavareladossantos/rvSimulator', 'TypHo22/rocketSim-Animation', 'gusdleon/fime_vr', 'talpallikar/vr-motion-analysis', 'kujyp/WebVR', 'tedjames/viroGame', 'charu29/Hackathon-5.0', 'barlettacarmen/FeelingsMatter', 'visitlab/caver-vr', 'fenixGames/MiniGameJamMarch2019', 'MMC-Scholars/TheGreatBalloonRace', 'AatmikJain/HackIndore2_Kryptonians', 'hubertben/Virtual-Reality-Term-Project', 'almasud/Virtual_Voice_Assistant', 'ForestKatsch/quest-environment-toolbox', 'joausaga/uturn', 'madmarcel/js13k2017', 'gdedi001/PortfolioVR', 'mulky5858/VirtualFurniture', 'utkarshShwetam/Juumbie-Shooter', 'UltimateRoman/VRkshop', 'Hitesh-Joshi15/DToy', 'maxheyn/VR-Lofi-Project', 'ameliacode/VirtualReality', 'arosamiran/playground', 'sdsu-its/book-vive-setup', 'ExplorViz/explorviz-backend-extension-vr', 'lvrg12/VR_Project2', 'MMC-Scholars/OfficeRecreation', 'ashimakeshava/Seahaven_VR_Map_comparison', 'jamesontucker/VRPainter', 'RicardoSantosPortfolio/PaleoVR', 'leon0399/openhaptics-firmware', 'CSM-Dream-Team/vr-independent-study', 'GabrielWal/obj-loader', 'arosamiran/playground', 'jacksoncougar/Interactions', 'charlesdevandiere/vr-viewer', 'fazildgr8/VR_communication_mujoco200', 'jacksoncougar/lettucefingers', 'realkushagrakhare/SociophobiaVR', 'Craig88/vr-workshop-national-theatre-scotland', 'David-Chen007/Control-Arduino-MKR-1000-LED-light-with-Unity3D-through-WIFI-UDP-communication', 'sdsu-its/book-vive-setup', 'Shivi55raghuvanshi/a-class-', 'croche2574/SwordVR', 'MMC-Scholars/OfficeRecreation', 'lvrg12/VR_Project2', 'ExplorViz/explorviz-backend-extension-vr', 'jamesontucker/VRPainter', 'ashimakeshava/Seahaven_VR_Map_comparison', 'RicardoSantosPortfolio/PaleoVR', 'leon0399/openhaptics-firmware', 'emanoelvianna/trabalho1-computacao-grafica', 'gdedi001/Rube-Goldberg-Challenge', 'Mramcharan/Mramcharan.github.io', 'Fangh/LoveLetter', 'cozcinar/optimalTiles', 'dragonhaert/TronKinect', 'chichunchen/RTSP-Client-Server', 'DCL-Waseda/WearableRobotHapticFeedback', 'Schnigle/agi-spell-game', 'Mehul1995/ThoughtDisposal', 'vrapeutic/GardenDoWebXR', 'shujathkhan/PanoramicRoadTrip', 'qdruault/Potager-Simulator', 'paulrox/ChessGame', 'mnmitacm/Awesome-template-for-the-website', 'TroyFernandes/CPS841-Virtual-Reality', 'ferdinandjason/virtual-reality-solar-system', 'dfriedenberger/metaversum', 'michaltakac/unity-lbm-af', 'tecedufurb/vr-quiz-app', 'blessingoraz/Build-apartment', 'elianalien/VRMotionsickness-solution', '3ach/VirtualReality', '3DRudder/3dRudder-js', 'ayaemad/Virtual-Dressing', 'v-octal/TicTacToeVR', 'CDJaramillo/DinoMuseumVR', 'lucasGras/Plazza', 'shanujshekhar/Space_Exploration_Game_Unity_Tool', 'YahyaAlaaMassoud/Illy-Tale', 'jianzhi-1/battle-of-new-york', 'iamrequest/timber-rhythm', 'vishal1patidar/virtual_lover', 'gdedi001/RechtschaffenVR', 'slashgk/MazeWalk-VR_Game', 'bossley9/Archery', 'ananttheant/VR-Attack-of-the-Mosquitoes', 'KarthikRIyer/FEEL-VR-Book-Reader', 'TheoLvs/data-science-VR', 'ShoaibKhan5/Graffiti-in-Virtual-Reality', 'zed9h/a-estrela-dormiu', 'RealityVirtually2019/Team-4D', 'RealityVirtually2019/Team-4D', 'Predhin/digi360', 'nayanseth/ms_thesis', 'New4rd/VR-study-Panoramic-videos', 'selvakarna/Human-Pose-Tracking-Skeleton', 'EdificeVR/EdificeVR', 'ArunMichaelDsouza/react-vr-foundations', 'AndersElmholdt/VRLocomotion', 'hahaxj/Unity3d_163_EXE', 'raceup/raceup', 'slashgk/Adrenaline-Rush-VR', 'horizon-research/rust-vros-simulate', 'GLUD/GLUDZILLA-VR', 'laloelectrixofficial/crypto-generator-multiwallet', 'AngelFQC/lavrinto', 'lanzhang76/artEcho', 'aru-py/huma-history-museum', 'gdedi001/Puzzler', 'owen31302/JumpBox-VR', 'kentagern/bubbles', 'OmarTag/VR-Design-Support-System', 'seanblonien/Aries', 'QiaoqianLin/FittsLaw', 'tejasparab1994/unity-virtual_reality', 'weiweitoo/VR-Hackathon']</t>
-  </si>
-  <si>
-    <t>[('augmented-reality', 132), ('virtual-reality', 132), ('web', 28), ('vr', 27), ('mixed-reality', 23), ('unity3d', 18), ('unity', 18), ('ar', 16), ('vision', 11), ('hololens', 11), ('xr', 9), ('computer-vision', 8), ('3d', 7), ('ios', 7), ('game', 7)]</t>
-  </si>
-  <si>
-    <t>[('polyfill', 2), ('plugin', 2), ('ios', 2), ('app', 2), ('cordova', 2), ('augmented-reality', 2), ('vr', 2), ('webvr', 2), ('ar', 2), ('w3c', 2), ('mozilla', 2), ('virtual-reality', 2), ('mixed-reality', 2), ('webar', 2), ('xr', 2)]</t>
-  </si>
-  <si>
-    <t>[('unity', 100), ('virtual-reality', 100), ('game', 20), ('unity3d', 17), ('csharp', 15), ('android', 9), ('oculus', 7), ('mixed-reality', 6), ('htc-vive', 5), ('oculus-quest', 5), ('machinelearning', 5), ('c-sharp', 5), ('steamvr', 4), ('oculus-rift', 4), ('arduino', 4)]</t>
-  </si>
-  <si>
-    <t>[('vr', 262), ('virtual-reality', 262), ('unity', 71), ('unity3d', 61), ('game', 40), ('oculus', 26), ('steamvr', 23), ('oculus-rift', 21), ('csharp', 19), ('vive', 18), ('htc-vive', 17), ('web', 15), ('virtualreality', 14), ('react', 14), ('android', 13)]</t>
-  </si>
-  <si>
-    <t>[('webvr', 89), ('virtual-reality', 89), ('web', 46), ('vr', 45), ('aframe', 39), ('threejs', 29), ('javascript', 17), ('game', 12), ('virtualreality', 12), ('a-frame', 11), ('augmented-reality', 10), ('html', 9), ('react', 8), ('ar', 8), ('vive', 7)]</t>
-  </si>
-  <si>
-    <t>[('unity', 2), ('virtualreality', 2), ('oculus', 2), ('unity3d', 2), ('oculus-rift', 2), ('virtual-reality', 2), ('oculus-touch', 2), ('haptics', 2), ('asset-store', 2), ('assetstore', 2), ('haptic-feedback', 2), ('oculus-quest', 2), ('oculusquest', 2), ('valve-index', 2), ('rgb-haptics', 2)]</t>
-  </si>
-  <si>
-    <t>[('unity3d', 24), ('virtual-reality', 24), ('csharp', 8), ('unity', 8), ('vr', 6), ('c-sharp', 4), ('game', 4), ('oculus-rift', 4), ('google-cardboard-vr', 4), ('udacity-nanodegree', 4), ('augmented-reality', 4), ('combat', 2), ('flying', 2), ('jet', 2), ('fighter', 2)]</t>
-  </si>
-  <si>
-    <t>[('virtual-reality', 409), ('unity3d', 66), ('game', 30), ('web', 27), ('htc-vive', 21), ('unreal-engine-4', 21), ('vision', 19), ('android', 19), ('javascript', 19), ('open-source', 18), ('machinelearning', 17), ('3d', 16), ('python', 15), ('react', 15), ('oculus-rift', 14)]</t>
+    <t>['mrdoob/three.js', 'aframevr/aframe', 'bulletphysics/bullet3', 'playcanvas/engine', 'relativty/Relativty', 'ExtendRealityLtd/VRTK', 'maartenbreddels/ipyvolume', 'viromedia/viro', 'supermedium/aframe-react', 'bjornbytes/lovr', 'supermedium/superframe', 'letoram/arcan', 'the3deers/android-3D-model-viewer', 'exokitxr/exokit', 'networked-aframe/networked-aframe', 'reinterpretcat/utymap', 'AsPJT/DungeonTemplateLibrary', 'aestheticinteractive/Hover-UI-Kit', 'fabio914/RealityMixer', 'omgmog/uxofvr.com', 'matryx/calcflow', 'microsoft/MapsSDK-Unity', 'IdeaSpaceVR/IdeaSpace', 'Project-Splinter/MonoPort', 'leapmotion/UnityModules', 'Jasonnor/Car-Simulator', 'KhronosGroup/OpenXR-SDK', 'maxxfrazer/RealityUI', 'eseedo/AR-VRCourse', 'viromedia/virocore', 'favreau/Sol-R', 'KhronosGroup/OpenXR-SDK-Source', 'ViveSoftware/ViveInputUtility-Unity', 'immersive-web/webxr-polyfill', 'De-Panther/unity-webxr-export', 'rurre/PumkinsAvatarTools', 'cosmoscout/cosmoscout-vr', 'ddiakopoulos/polymer', 'maluoi/StereoKit', 'letoram/safespaces', 'icosa-gallery/open-brush', 'rjth/Punchkeyboard', 'vircadia/vircadia', 'mgschwan/VRWorkout', 'XRFoundation/XREngine', 'OpenNewsLabs/guri-vr', 'vizorvr/patches', 'Yonet/MixedRealityResources', 'JScott/ViveGrip', 'Moving-AI/virtual-walk', 'hggeorgiev/CentroUI', 'teliportme/remixvr', 'tiero/react-native-360', 'GPUOpen-ProfessionalCompute-Libraries/MIVisionX', 'dag10/HoloViveObserver', 'ShootingKing-AM/PhoneVR', 'MTASZTAKI/ApertusVR', 'terminal29/Simple-OpenVR-Driver-Tutorial', 'hlrs-vis/covise', 'edoardottt/spark-ar-creators', 'immersive-web/webvrrocks', 'dabeschte/VRArmIK', 'facebookresearch/HVVR', 'immersivecognition/unity-experiment-framework', 'TrackLab/ViRe', 'kwonoh/ImsvGraphVis', 'WenlinMao/android-3d-model-viewer', 'KevinSmall/blockchain3d', 'jbaicoianu/janusweb', 'michaltakac/mathworldvr', 'liyasthomas/lvr', 'uic-evl/omegalib', 'vimeo/vimeo-threejs-player', 'microsoft/spatial-computing', 'marpi/resonate', 'luiguild/aframe-svg-extruder', 'mobfishgmbh/Cardboard-VR-Unity-SDK', 'alatnet/OpenPSVR', 'exokitxr/exokit-web', 'kondrak/oculusvr_samples', 'SDraw/roc_engine', 'samuelcardillo/WebScreenVR', 'okawo80085/hobo_vr', 'danielesteban/blocks', 'natsuite/NatML', 'OpenCollar/opencollar', 'amazingandyyy/vr-player', 'marpi/worlds2', 'qualisys/Qualisys-Unity-SDK', 'MoonMotionProject/MoonMotion', 'ColumbiaCGUI/MercuryMessaging', 'marpi/immersive', 'taurenshaman/awesome-3d', 'picorana/VR_audioscape', 'vistle/vistle', 'tobiasbueschel/virtual-reality-tour', 'kotlin-graphics/bullet', 'KinectToVR/k2vr-application', 'CognitiveVR/cvr-sdk-unreal', 'timdecode/LifeBrush', 'cys920622/sudoku-vision', 'vivalite/VRArcadeSoftware', 'vmware-archive/vr-dc-ex', 'exokitxr/exokit-browser', 'leetvr/hotham', 'marpi/vr', 'ViveSoftware/ViveStereoRenderingToolkit', 'KhronosGroup/OpenXR-CTS', 'Svrf/svrf-ios-sdk', 'harfang3d/vr-python-quickstart-hg1', 'kinetecharts/openPerform', 'jherico/OpenXR-Samples', 'gilcoder/AI4U', 'mondradiko/mondradiko', 'owlboy/greatpug-public', 'kondrak/quake_bsp_viewer_vr', 'ubisoft/vrtist', 'YagoLopez/vrview-react', 'KinectToVR/k2vr-installer-gui', 'void4/FireVR', 'mnrmja007/awesome-virtual-reality', 'kuixu/VRmol', 'HadesVR/HadesVR', 'hgabor47/VRPrelimutensDesktop', 'disasteroftheuniverse/SuperQuest', 'IBM/vr-speech-sandbox-rift', 'phoenixbf/aton', 'sayhitosandy/2D-to-3D', 'cinderblocks/radegast', 'marpi/worlds', 'teliportme/remixVR-moved', 'vladkol/MediaPlayback', 'Yonet/WebVRExamples', 'JohnCoene/g3r', 'chrislarkee/VR-Neuroanatomy', 'CognitiveVR/cvr-sdk-unity', 'chandler767/Magic-Leap-Gesture-IoT-Example', 'gruberdev/vr-resources', 'erosmarcon/vr-keyboard', 'alvinwan/mirrorvr', 'doerlbh/V2R', 'TheLogicMaster/Tower-Defense-Galaxy', 'palle-k/GVRSCNRenderer', 'alvinwan/aframe-low-poly', 'PoCInnovation/Pool2021', 'vasturiano/aframe-globe-component', 'marpi/camp', 'felixkosmalla/unity-vive-reality-mapper', 'DLR-SC/island-viz', 'charliegerard/daydream-node', 'MahmudulAlam/Fingertip-Mixed-Reality', 'alanplotko/EscapeTheRoomVR', 'EOSVR/EOSVR', 'xen0bit/muvr.xyz', 'liyuechun/awesome-react-vr', 'VRRollerCoaster/VRRollerCoaster.app', 'corycorvus/VIVE-Tracker-Wiki', 'sfhacks/Virtual-Reality-Drone', 'Yonet/AzureMixedRealityDocs', 'osudrl/OpenVR-Tracking-Example', 'KhronosGroup/OpenXR-Hpp', 'Fundacio-i2CAT/ImAc', 'immersive-web/webvr', 'YagoLopez/react-aframe-typescript-boilerplate', 'Vytek/MayaVerse', 'TefiC/wtm-udacity-scholars-nanodegree-resources', 'Ideasis/VivoosVR', 'RGB-Schemes/Rift-Poke', 'wearesimbol/simbol-world', 'diglungdig/Simple_Note_VR', 'Vytek/WaterVRTest', 'campfireunion/NewtonVR-Multiplayer', 'olir/Frankenstein', 'RGB-Schemes/Unity-Modern-XR-Sample', 'acidrainstudios/TrueReality', 'Tobbse/AnotherBadBeatSaberClone', 'seckincengiz/xr', 'DanielRBowen/UE4-VRHands-Template', 'ViveSoftware/DoDoFishSRWorksDemo', 'urish/vr-hero-aframe', 'marssociety/mdrs_beechner-hartman', 'Erkaman/regl-webvr-demo', 'Erkaman/regl-webvr-demo', 'azhirnov/ModularGraphicsFramework', 'danielesteban/trolltower', 'EnoxSoftware/GoogleVRWithOpenCVForUnityExample', 'RootSoft/Oculus-Quest-Setup', 'gmarty/all-saints-ar', 'mytechnotalent/KevinSaber', 'rudrajikadra/Virtual-Reality-Tour-Unity-3D-World-Tour', 'janusvr/janusweb', 'scott0123/1-HP-Wizard', 'cozcinar/omniAttention', 'PyrusMed/Pear-Interaction-Engine', 'rarora7777/MagicalHands', 'miguelleitao/btosg', 'Ohara124c41/Udacity_Projects_Master_Repo', 'VR-Robotica/AvatarComponents', 'acerwebvr/acerwebvr.github.io', 'WaleedYaser/Anubis-Maze-VR', 'USCCACS/GEARS', 'geshii/Awesome-Virtual-Reality', 'primaryobjects/unity-to-aframe', 'KinectToVR/k2vr-installer', 'mherrerabarraza/mapbox-viroreact-point-of-interes', 'spammaleros/ALMP_Template', 'HackyRoot/A-Frame-Examples', 'FinchTechnologies/FinchUnitySDK', 'NotionTheory/awesome-xr', 'PlumCantaloupe/circlesxr', 'm-hasan-n/hlp', 'stealthybox/vr-swarm', 'codemacabre/planetaryxr', 'jzitelli/poolvr.py', 'immersive-web/ar-common', 'ByfrostVR/HeartstoneVR', 'walidabazo/Unity-walkthrough-', 'grodno-vr/grodno-vr.github.io', 'zarik5/PhoneVR', 'AndreZenner/notifications-framework', 'Vytek/MayaVerse03', 'alvinwan/lightful', 'VirtualRealityDesigner/ARCHIVED_04_Squashy_Toad_VR', 'Svrf/svrf-javascript', 'celestiary/web', 'sariug/mpfluid_cave_frontend', 'AndreZenner/shifty', 'wescotte/distortionizer-SteamVR', 'Jamy4000/VRSF_Hybrid_ECS', 'klngbhn/RDW_CurvedPathConfigurator', 'excessive/lovr-haxe-wrappergen', 'VirtualRealityDesigner/03_ShootHoop', 'maine-imre/handwaver', 'Manuvr/Digitabulum-Firmware', 'davidezordan/MixedRealitySamples', 'AndreZenner/hand-redirection-toolkit', 'ravenblu/LeafVR', 'TheFitzZZ/DCS-Config-Manager', 'fvcaputo/virtualtheatre', 'powermobileweb/Kerbal-VR', 'sorianog/xr-applications-tracker', 'ErickSimoes/EscapeMuseumVR', 'dilmerv/NextMindDemos', 'thestr4ng3r/towerengine', 'flight-rs/flight', 'space-chat/space-chat', 'Jordonbc/VREngine', 'Barliesque/HandsOnVR', 'hgabor47/vrpd_windows', 'chandler767/Cube-Fight', 'johannesridho/simple-vr-app', 'visionn/crespi', 'PinkMilkProductions/VirtualFortress2', 'VRcheology/VRcheology.github.io', 'cocomr/coco', 'debowin/ironman-vr', 'ucsdlib/geiselVR', 'tmitro/ucf-ist-redirected-walking', 'Zuehlke/SharedWhiteboard', 'JordanMajd/within_vr_downloader', 'cog-ethz/EVE', 'EugeneTel/PistolWhip-UE4', 'AndroidHMD/TowerVR', 'nwchinn/Cardboard-Viewer', 'CreoverseTeam/CreoversePublic', 'WebFreak001/OpenVR-D', 'CognitiveVR/cvr-sdk-cpp', 'georgezoto/Virtual-Reality-Nanodegree', 'DanielRBowen/UE4-VR-XPlatform-Menu', 'AndreasRoither/Virtual-interaction-library', 'gregorsamsa183/VirtualReality_2Dto3D', 'alatnet/libpsvr', 'Devoxx4KidsDE/workshop-maze-vr', 'gpvigano/VRTK-GearVR-Test', 'powermobileweb/VRTK', 'echeese/Quakespasm-OpenVR', 'marpi/black_rain', 'rajandeepsingh13/6DOF-Mobile-VR-Using-GVR-and-ARCore', 'CarlKenner/DOOM-3-BFG-VR', 'FlorianJa/BeamLite-Unity', 'roboticeyes/openrex', 'lowtalkers/escape-reality', 'brianpeiris/ChordVR', 'sohail0992/basketBallGame', 'walidabazo/Tutorial-Unity-and-Vuforia-Realistic-Shadows-on-Augmented-and-Virtual-reality-', 'csiro-scientific-computing/vr-ui', 'nayanseth/vr_cricket', 'Anna-Henson/Wake_CMU_Thesis', 'anilbey/HandVisualiser', 'markbrouch/plex-vr', 'BritishMuseum/DH-OculusVR-models', 'computationalcore/vin-carnival', 'anubhavp28/VR-Play', 'leoll2/eMotion', 'TCLResearchHK/VRWorkshopHKOSCon2017', 'rodrigooler/react-vr-sample', 'andrewsoohwanlee/Cracking-the-Egg', 'planetareum/Planetareum', 'defund/imucap', 'kliments/TitanicVR', 'ltfschoen/react-fluxible-test', 'Zetaphor/ovrt-helper', 'COVID-19-AI-Research-Project/Oculus-Rift-Detection-System', 'StephenHodgson/Native-Unity-API', 'alvinwan/ergo', 'harrybanda/VirtualCoderScripts', 'sandsmark/linux-vr-player-or-something', 'antoniohof/aframe-text-texture-component', 'ebadier/ViveTrackers', 'GitTibbe/Mc-Simulator-with-VR', 'VRRollerCoaster/WebVR.Space', 'ArrayCoreDevelopers/Array', 'semihsmg/GloVR', 'bntzio/tour-aframe', 'VirtualRealityDesigner/02_GoHome', 'pleonex/dds-unity', 'AvatarZZ/AvatarZZ', 'vrlfp/vrlfp', 'Physicslibrary/ARKit-Stereoscope-CDEM', 'ahmetozlu/unity_camera_movements', 'aardvark-community/aardvark.vr', 'c2m2/Neuro-VISOR', 'Gracken-GrackGames/SimpleVRUI', 'ShootingKing-AM/Leap-Gesture-Checker', 'xiajenny/CAVE-Camera-Rig-Prefab', 'gdedi001/Night-at-the-Museum', 'TCLResearchHK/VRWorkshopCityU', 'WebVRRollerCoaster/VRRollerCoaster.app', 'Svrf/svrf-unity', 'yaomtc/VR-on-Linux', 'defcon201/xrdesktop', 'rahul6975/Helping-Voice', 'Cesarsk/Android-QR-Code-on-AR', 'buchou/tsuki', 'neonmoe/solitude', 'dyanikoglu/VRChef', 'realitystudios/Quest-VRTK-Boilerplate', 'Schrodinger-Hat/xmas-crystal-ball-threejs', 'mrhegemon/xrNFT', 'HairyFotr/Liminoid', 'Ho-Lab-Colostate/webchemvr', 'stuartmead/CloudBoard', 'asemahassan/3DPuzzleVR', 'adityadua24/Protein-VTKopenVR', 'tentacode/Cubyrinth', 'marpi/eutow', 'alvarosg88/Talk-to-the-Bot', 'aryansingh12/Virtual-Reality-Classroom', 'robindsyang/LoBSTr', 'hupili/hhba2016-argentina-vote', 'jbecke/VR-Vendor', 'UweGruenefeld/PeriMR', 'Shenc0411/FlightSimulator', 'GeekyShiva/Talks-and-Workshops', 'buchou/karabako', 'corycorvus/Eye-Tracking-Wiki', 'lchsam/F123', 'buchou/karabako', 'corycorvus/Eye-Tracking-Wiki', 'fang-w-shen/Galaxy-VR', 'point105-ar/ExampleModels', 'haroldma/nucleus3d', 'Kirbyrawr/Ethereal-VR', 'DanielTk26/3D-Web-VR-Solar-System', 'yitzikc/mre-alarm-timer', 'hyperdelia/hex002-womb', 'syncrocat/UnityVRSMN', 'dtmacroh/rooting-for-you', 'AndreaMaffe/Physics-for-Dummies', 'urish/valentines-vr', 'mytechnotalent/VRPong', 'Svrf/svrf-csharp', 'koushik-elite/Simple-Room', 'rsk5492/Night-at-a-Museum-VR', 'sjcobb/lake-hylia', 'sjcobb/lost-woods', 'arminkz/EyeTrackingVR', 'amalon/osgXR', 'MjStrwy/RiverfrontVR_VRTK', 'xeliot/Perspective', 'MjStrwy/RiverfrontVR_VRTK', 'SEKCJ/G_Hall', 'BernwardWeigand/UnityUIToolkitXRAdapter', 'ishkapoor2000/DivyaChitta', 'FannyChao/VPT360', 'em-fong/chill-out-aframe', 'ThoAppelsin/virtual-window', 'mlevin2/proxima', 'spamchurch/isthisabookclub', 'BerwinZ/VR_Fitness_Bike', 'ariannagavioli/corona-shoot', 'prampey/BrainShift', 'gdedi001/ModernApartment', 'markoshorro/look-around', '13rac1/Roll-a-Ball-VR', 'ErlerPhilipp/VR_DA', 'sintefneodroid/XR', 'diglungdig/Surrealism-Replica-VR', 'iamtomhewitt/vr-fighter-jet', 'sluger/CaveDNAVis', 'JoyceStick-BC/JoyceStick', 'v-octal/escape', 'tongji-cdi/mr-platform', 'VPRL/Virginia-Philosophy-Reality-Lab', 'Utopiah/vrify', 'V-Sense/omniAttention', 'lromerio/SpyVR', 'sintefneodroid/XR', 'diglungdig/Surrealism-Replica-VR', 'iamtomhewitt/vr-fighter-jet', 'V-Sense/omniAttention', 'Utopiah/vrify', 'Physicslibrary/ARKit-Stereoscope-67P', 'lromerio/SpyVR', 'doubleZ0108/Soul-Maze', 'DomSleightholme/VRAssaualtCourse', 'nucleartide/AR-Developer-Guide', 'cyliang/FIVE', 'VirtualRealityDesigner/04_SquashyToad', 'CSM-Dream-Team/final-project', 'Physicslibrary/Threejs-VR-Curiosity-Navcams', 'JoanCharmant/SharpQuill', 'GioStamoulos/Car_Vr_Game', 'usydtechlab/innovation-week-2018s2', 'MIEC/vr-tsst', 'marianhlavac/openhvr', 'dfgHiatus/hiatusMenu', 'electricganesha/IBO-video', 'hsuanhauliu/RuGo', 'Svrf/svrf-swift4-client', 'Fakhri/vr-trading-prototype', 'ViroCommunity/ideas_and_sugestions', 'philipturner/scene-color-reconstruction', 'alexlitel/vr-resume', 'dylanede/ovr-sys', 'SurferJim/BioMight', 'Chainsawkitten/Deathcap', 'shengyu7697/MarkerVR', 'Super-Lovers/chem-risk-vr', 'AurelienGttn/DrumVR', 'Daniel2193/PSVR_JoyCon_VR_Bridge', 'COS301-SE-2021/AR-VR-GAN', 'JoyceStick-BC/JoyceStick-Website', 'khanxc/HoloLens-GGV-Demo', 'webb04/MoneyBuddy', 'nauaneed/OrbitPropagator', 'JoseRamonMartinez/Unity_VR_ForkLift_Simulator', 'Physicslibrary/Threejs-VR-Hipparcos', 'kongmunist/alteredperceptions', 'ThomasTerp/hla-vending-shop', 'sarafinmahtab/360-Virtual-Tour', 'vrapeutic/vrapeutic.github.io', 'zmaqutu/vr-doctor', 'liyuechun/react-vr-demos', 'Zynced/Vision', 'zomboh/vuppets', 'bhavyejain/BeatSaber', 'amannirala13/Arduino-NodeJS-360-Video-Player', 'nanome-ai/nanome-lib', 'prashant-andani/3d-models', 'DauteRR/VRMaze', 'Curran-H/Aleph-Online', 'averyfollett/vrcade', 'Snowapril/VRoomEditor', 'amalon/flightgear-vr', 'racmeh/Universe-in-Virtual-Reality', 'MaksumRifai/kumparan-ar', 'QuestionWhatsReal/VRone-SDK', 'philipturner/ar-multipendulum', 'Mrbanano/Vr-island', 'Juandavid716/Virtual-reality-cartesian-map', 'danmaq/Swing', 'mnixo/nuxeo-vr-hackathon', 'kristol07/vr-homework', 'lukereichold/Asteroids-3D', 'OlafHaag/UE4-ReachTask', 'connorshea/vglist-vr-viewer', 'Call-for-Code/DamageCheck', 'philipturner/first-affordable-ar-headset', 'a7ul/VRDemo', 'The-Painkiller/UnrealVRShooter', 'bobvanluijt/Sumikko-Gurashi-VR-app', 'shannonturner/aclearnight.com', 'vivekghanchi/VRRajasthan', 'ChristianMurphy/respondvr-ui', 'Svrf/svrf-java-client', 'mortennobel/SimpleVRCpp', 'Physicslibrary/Threejs-WebXR-67P', 'sahil-awasthi/A-Frame-AR-VR-cricket-pitch-', 'jayber/wevr', 'satchpuri/Castle_SilVR', 'MicheleMallia/XVR-VirtualMuseum-PROJECT-MASTER-THESIS-', 'onejgordon/cec_vr', 'FannyChao/AVS360_audiovisual_saliency_360', 'karunashi/Equilibrium', 'marianhlavac/immersion-vr', 'kliments/VRaid', 'thetestgame/panda3d', 'KarjamP/NDEYSS', 'aayush-ag21/Virtual-Reality-Arm', 'VRKnock/VRKnockServer', 'abhinavsri360/Edukalp', 'NgoJunHaoJason/CZ4001', 'fgadea/invaderInVR', 'jayber/vrlobby', 'sjcobb/fire-temple', 'fang-w-shen/Virtual-Portfolio', 'mayankrastogi/EveryDayIsHalloween', 'EricBatlle/VR_GalleryApp', 'JamesTang2905/Individual-Project-2017-18', 'CavalcantePedro/AR_Plus_VR', 'Physicslibrary/ARKit-Stereoscope-Hipparcos', 'Sweet-Potato-Studio/Beatsaber_sortalike-VR', 'dartmouth-cs98/20w-ensemble-vr-score-following', 'Physicslibrary/Threejs-VR-Physics', 'DigitaltInnovationscenter/Platsbanken-VR', 'fernand0aguilar/flowers-vr', 'Whide/vr-guidelines', 'heyhellomila/atelier-xena', 'dastasoft/escape_from_the_pabe_vr', 'nimarek/Contextual-Cueing-Unity', 'balavenkatesh3322/tensorflowjs-demo', 'CorneliusCornbread/LAUNCH-Camera-Toolkit', 'Nesbi/PsyWueVR', 'electricganesha/VR-PUSHRide', 'dvpermyakov/vr-sample-android', 'vishrantgupta/Virtual-Reality-Oculus-Rift', 'YogiOnBioinformatics/ProteinVR', 'ckevar/XVR-sublime', 'devshank3/Twillin', 'MahmoudSabra1/MonsterGo-VR-game', 'ExplorViz/explorviz-frontend-extension-vr', 'sayakbiswas/BranchToolVR', 'manjogsingh/VR-Puzzle', 'Whide/vr-guidelines', 'fernand0aguilar/flowers-vr', 'dastasoft/escape_from_the_pabe_vr', 'heyhellomila/atelier-xena', 'balavenkatesh3322/tensorflowjs-demo', 'nimarek/Contextual-Cueing-Unity', 'CorneliusCornbread/LAUNCH-Camera-Toolkit', 'jspark311/Digitabulum-Firmware', 'hiteshsahu/Hello-ReactVR', 'caseytrombley/react-vr-space', 'Takichiii/JustDanceRevolution', 'salepape/collaborative-scatterplot-rendering', 'Sky0023/Virtual-Museum', 'angrammenos97/OpenCV-VR-Controllers', 'chizhang529/vr-the-island', 'Jamesfleming1/JamesGlove', 'UweGruenefeld/OutOfView', 'agarwalkaushal/Math-VR', 'giantdem/BasketballVR-Unity', 'mattrighetti/DoYouSpeakHolo', 'jeevitha27/ResearchProjectTrackingVR', 'cflaviu/CRYENGINE', 'ProVR-Norway/ProvrUE4', 'sayhitosandy/Survival_Shooter_Game', 'Haitons/VR_Project', 'chuanenlin/ollie-vr', 'Maccauhuru/HouseTourVR-React360', 'ArunJRK/city-review-unity-project', 'tzachari/cordova-plugin-webxr', 'amalon/OpenSceneGraph', 'MohitKumavat/Ego_Jenga', 'sayhitosandy/Survival_Shooter_Game', 'Haitons/VR_Project', 'Maccauhuru/HouseTourVR-React360', 'tzachari/cordova-plugin-webxr', 'chuanenlin/ollie-vr', 'ArunJRK/city-review-unity-project', 'nsalminen/HMDRemoval', 'brianpeiris/life-xr', 'Hanzo296/VR_Unreal_LeapSensor', 'primaryobjects/UnityAFrameExporter', 'athena-app/athena-android', 'vtcity/wiki', 'gdedi001/Performance-Bounceback', 'horizon-research/svr-streaming-system', 'cognonic/Augmented-Reality-Hololens', 'jmarco2000/The-Sentinel-VR', 'HadesVR/Wand-Controller', 'VirtualRealityDesigner/ARCHIVED_02_GoHome', 'PierreGe/VR-Picture-Browser', 'smann9/story-tracker', 'MMC-Scholars/VRBase', 'nkalavak/InsightVRModule', 'hgabor47/vrpd_android', 'kliments/Master-s-thesis', 'aiial/all-detection-system-for-oculus-rift', 'VirtualRealityDesigner/ARCHIVED_02_GoHome', 'PierreGe/VR-Picture-Browser', 'smann9/story-tracker', 'hgabor47/vrpd_android', 'MMC-Scholars/VRBase', 'nkalavak/InsightVRModule', 'kliments/Master-s-thesis', 'SonalSavaliya/Brain-Signal-Authentication-for-Human-computer-Interaction-in-Virtual-Reality', 'henriheimann/rollivr', '1runeberg/VRHiddenAreaMaskPreviewer', 'petewarrior/pwtweetar-aframe', 'jarosado0911/jarosado0911', 'kolibrid/GeneNet-VR', 'lilianmallardeau/Homemade-BeatSaber', 'blessingoraz/Udacity-carnival', 'ioio-creative/Solar-System', 'v-octal/Puzzler-ASpaceAdventure', 'brittishsnow/CMPT401_Learned_Owls', 'davidezordan/Build-an-apartment', 'EyalMaoz/Pinch_Rehabilitation_VR_Personalized_Treatment', 'Physicslibrary/Threejs-VR-Sensors', 'imanishbarnwal/VR-projects', 'lvcarx/virtual-reality-shop-concept', 'Ys-sudo/puuf-vr-project', 'vrajdesai78/Solar-System-using-WebXR', 'MaksumRifai/hacktiv8-ar', 'MKme/VR', 'HSAnais/Cybersickness-mobileVR', 'Toscan0/IST-RV', 'ysoroka/VR-Rollercoaster', 'jhgrins/Leap_Motion_VR_Edu_Game', 'crud89/UnrealDR', 'FilipePires98/CinematicVR-ProductionTool', 'bekasidev/vr', 'MaksumRifai/dh-vr', 'gdedi001/MazeVR', 'JeffreyHsieh/CS179I', 'marianhlavac/immersion-vr-agent', 'kujyp/WebVR', 'jaks19/Augmented-Reality-Google-Glass-Safari-Game', 'tedjames/viroGame', 'klingo/fhnw-mt-prototype', 'talpallikar/vr-motion-analysis', 'charu29/Hackathon-5.0', 'Bulisor/Experiments', 'RedHawkVR/MysticArts101', 'mytechnotalent/K-Blackjack', 'MMC-Scholars/TheGreatBalloonRace', 'hubertben/Virtual-Reality-Term-Project', 'almasud/Virtual_Voice_Assistant', 'HTWK-18INB-1/harae', 'fibo-hcilab/HCI-LAB', 'danielborbavareladossantos/rvSimulator', 'gusdleon/fime_vr', 'CristianAricapa/VR_StaticMovement', 'inesosoares6/XR-Precision-Analysis', 'talpallikar/vr-motion-analysis', 'jaks19/Augmented-Reality-Google-Glass-Safari-Game', 'gdedi001/MazeVR', 'marianhlavac/immersion-vr-agent', 'kujyp/WebVR', 'JeffreyHsieh/CS179I', 'klingo/fhnw-mt-prototype', 'tedjames/viroGame', 'charu29/Hackathon-5.0', 'RedHawkVR/MysticArts101', 'Bulisor/Experiments', 'fenixGames/MiniGameJamMarch2019', 'MMC-Scholars/TheGreatBalloonRace', 'AatmikJain/HackIndore2_Kryptonians', 'hubertben/Virtual-Reality-Term-Project', 'eipm/unity-workshop', 'almasud/Virtual_Voice_Assistant', 'mytechnotalent/K-Blackjack', 'HeyAnirudh/EDU-AR', 'HTWK-18INB-1/harae', 'ForestKatsch/quest-environment-toolbox', 'CaptainDreamcast/SloMoDo', 'madmarcel/js13k2017', 'DLozanoNavas/VRNetworking', 'kingdomax/vr-bomb', 'davidezordan/RubeGoldberg', 'tenhobi/BI-VR1', 'JaredP94/Unreal-VR-Artist', 'Minipeps/VR_Chemist', 'defritz/VirtualRealityProjects', 'GlassedSilver/magisk-module-daydream-for-sony-f5121', 'utkarshShwetam/Juumbie-Shooter', 'maxkung101/JohnLeeVR', 'Stefanc23/Virseum', 'jameshenderson12/covirr-effective-communication', 'milkdoes/PhobiaManagerVR', 'mbrickn/FUNKY-VR-PACHINKO', 'arosamiran/playground', 'andyli/AFrameExtern', 'noxo/yle-areena-webvr-player', 'sdsu-its/book-vive-setup', 'ashdavies/unity-starter-projects', 'ExplorViz/explorviz-backend-extension-vr', 'gdedi001/TicTacToe', 'MMC-Scholars/OfficeRecreation', 'mirkomantovani/AR-Eat-it', 'luiscarbonell/hackathon.nbcuniversal_2019.yories', 'WebVoxel/plugin-webvr', 'ashimakeshava/Seahaven_VR_Map_comparison', 'NelloJoint/Spark-AR_RGB-Face', 'VRKnock/VRKnockBridge', 'RGB-Schemes/RGB-Haptics-Issues', 'jamesontucker/VRPainter', 'hajekjiri/neanderthals-vr', 'nightscout01/ContainmentBreachVRBlink', 'dianakdev/0x0B-unity-vr_room', 'RicardoSantosPortfolio/PaleoVR', 'azurast/DichromaVR', 'leon0399/openhaptics-firmware', 'milkdoes/PhobiaManagerVR', 'GabrielWal/obj-loader', 'arosamiran/playground', 'jacksoncougar/Interactions', 'BrickviewStudios/brickviewstudios.github.io', 'sayhitosandy/Augmented_Reality_HW', 'jacksoncougar/lettucefingers', 'GufisYT/Pedrosimo', 'realkushagrakhare/SociophobiaVR', 'Craig88/vr-workshop-national-theatre-scotland', 'David-Chen007/Control-Arduino-MKR-1000-LED-light-with-Unity3D-through-WIFI-UDP-communication', 'noxo/yle-areena-webvr-player', 'sdsu-its/book-vive-setup', 'pwy1608/Holoterior', 'andyli/AFrameExtern', 'croche2574/SwordVR', 'MMC-Scholars/OfficeRecreation', 'gdedi001/TicTacToe', 'ashdavies/unity-starter-projects', 'ExplorViz/explorviz-backend-extension-vr', 'mirkomantovani/AR-Eat-it', 'luiscarbonell/hackathon.nbcuniversal_2019.yories', 'jamesontucker/VRPainter', 'RGB-Schemes/RGB-Haptics-Issues', 'WebVoxel/plugin-webvr', 'hajekjiri/neanderthals-vr', 'VRKnock/VRKnockBridge', 'ashimakeshava/Seahaven_VR_Map_comparison', 'NelloJoint/Spark-AR_RGB-Face', 'nightscout01/ContainmentBreachVRBlink', 'RicardoSantosPortfolio/PaleoVR', 'leon0399/openhaptics-firmware', 'dianakdev/0x0B-unity-vr_room', 'azurast/DichromaVR', 'emanoelvianna/trabalho1-computacao-grafica', 'ErickSimoes/PuzzleSimonSays', 'ErickSimoes/maze_vr', 'gdedi001/Rube-Goldberg-Challenge', 'EiT-VR-2017-Gruppe-2/EV3-code', 'Fangh/LoveLetter', 'Premanand88/VR-Maze', 'cozcinar/optimalTiles', 'dragonhaert/TronKinect', 'chichunchen/RTSP-Client-Server', 'DCL-Waseda/WearableRobotHapticFeedback', 'StaneCobalt/Udacity-VR', 'gpvigano/OpenVISDIVE', 'Yonet/HoloLensUnitySeedProject', 'Mehul1995/ThoughtDisposal', 'NavpreetDevpuri/mindroom', 'Solla/VRControllerVibrationDisabler', 'shujathkhan/PanoramicRoadTrip', 'COVISART/VirtualExpo', 'qdruault/Potager-Simulator', 'paulrox/ChessGame', 'Ameya05/DartsArena', 'ela-ine/intro-to-VR-ShootHoops', 'TroyFernandes/CPS841-Virtual-Reality', 'ferdinandjason/virtual-reality-solar-system', 'aomnes/Projet_VI50_UTBM', 'elocnatsirt/off-killter', 'achyutb6/Sensory', 'catherinesyeh/catherinesyeh', 'hajekjiri/duckshooter-vr', 'jamiebeach/WebXR', 'eleanor-studio/photon.webxr', 'hjmh/unityvr', 'brianchirls/mit2016', 'blessingoraz/Build-apartment', 'elianalien/VRMotionsickness-solution', '3ach/VirtualReality', 'realitypipe/webvr-sample', 'reubenkcoutinho/InformationBoothVR', 'spiritphyz/Immerse-VR', '3DRudder/3dRudder-js', 'v-octal/TicTacToeVR', 'CDJaramillo/DinoMuseumVR', 'lucasGras/Plazza', 'Maccauhuru/React-Virtual-Reality', 'murcoder/bottle_shooter_vr', '4A-50/OSVU', 'Mrgove10/Unity-VR-template', 'shanujshekhar/Space_Exploration_Game_Unity_Tool', 'PhilToolan/Final-Year-Project', 'philipturner/arheadsetkit', 'iamrequest/timber-rhythm', 'gdedi001/BrightU-VR-Prototype', 'vmcreative/Jabberwock_Studio', 'gdedi001/RechtschaffenVR', 'bossley9/Archery', 'ananttheant/VR-Attack-of-the-Mosquitoes', 'shopped/VR-FoodAdventure', 'KarthikRIyer/FEEL-VR-Book-Reader', 'codymorrison/basics', 'RealityVirtually2019/Team-4D', 'salonikalra/VFM', 'RealityVirtually2019/Team-4D', 'ILLIXR/illixr.github.io', 'ubcemergingmedialab/ScholarsVR', 'Predhin/digi360', 'VRKnock/VRKnockApp', 'nayanseth/ms_thesis', 'anukritijha246/Virtuary', 'rasicci/rasicci.com', 'museum4punkt0/VR-Gaze-Menue', 'ArunMichaelDsouza/react-vr-foundations', 'br66/Camp-Wario', 'AndersElmholdt/VRLocomotion', 'zoonk/vr-experiments', '3DRudder/babylonjs-3dRudder', 'raceup/raceup', 'slashgk/Monster-Go-VR', 'bharathkumarms/maze-play', 'kushaangupta/Roboclub', 'TroyFernandes/ESCAPE', 'horizon-research/rust-vros-simulate', 'stinodes/fuvr', 'Soludus/Soludus2Enercity', 'GLUD/GLUDZILLA-VR', 'achyutb6/3D_VR_Environment', 'mirkomantovani/BubbleVR', 'Williano/Unity3d', 'dhrumilp15/UnityVRStreaming', 'Williano/OpenGL', 'ChongzhengZhao/Research-on-Sponge-City-Construction-Based-on-GIS-VR-and-BIM', 'laloelectrixofficial/crypto-generator-multiwallet', 'AngelFQC/lavrinto', 'Guilospanck/TCC_pdfVersion', 'omorest/Proyecto_Final_II', 'miktadtahir/ue4VRarchitectureHQ', 'lanzhang76/artEcho', 'andresilmor/Interaction-with-360-image-elements', 'aru-py/huma-history-museum', 'rohvani/hifi-scripts', 'joshua-friede/Internet-of-Followers', 'wilsonwong13/ShapeShareVR', 'gdedi001/Puzzler', 'kentagern/bubbles', 'euccas/udacity-vr', 'seanblonien/Aries', 'Calipfaith/VR-MadHouse', 'ticknerr/aframe-react-staircase-example']</t>
+  </si>
+  <si>
+    <t>['immersive-web/webxr', 'immersive-web/webxr-samples', 'immersive-web/webxr-input-profiles', 'vriajs/vria', 'immersive-web/webxr-gamepads-module', 'Arjav-Patel/Vuforia-Integration-with-Meta-2', 'garretthogan/ayyyylmao', 'jinyucn/Video-Streaming-Research-Papers', 'RedHat-Israel/rosvr-client', 'drscotthawley/SoundFieldsForever', 'Ailln/EDITH', 'jlcouto/3DFitts', 'DomenicoRomano/ARVRDeploy', 'c-ar-d/cARdViro', 'SpaceGold/spacegold.github.io', 'Clifford-Beta/adaptive-beamforming']</t>
+  </si>
+  <si>
+    <t>['aframevr/awesome-aframe', 'aframevr/a-painter', 'aframevr/aframe-inspector', 'aframevr/a-blast', 'aframevr/aframe-registry']</t>
+  </si>
+  <si>
+    <t>['fpw/avitab', 'NitishMutha/equirectangular-toolbox', 'IBM/vr-speech-sandbox-vive', 'tana/Mondeto', 'Christian1984/vfrmap-for-vr', 'IBM/vr-speech-sandbox-cardboard', 'aaron-marcus/cybernetic-landscapes', 'NikolaySuslov/livecodingspace', 'Ajedi32/echovr_api_docs', 'Charmve/TimeWarp', 'Twometer/twometer-vr', 'chrise96/3D_building_reconstruction', 'menchelab/VRNetzer', 'cronkite-asu/Neighborhood-DataVR', 'vrapeutic/EllieTale-WebXR', 'groverkimi/kodiaddon', 'Ishaan28malik/Virtual-Conf-List', 'simon-gunacker/vive', 'ietheredge/VisionEngine', 'josecyc/Neurotron', 'arunanto3116/pokemonVR', 'kanchan88/snapchat-like-shades-filter', 'Electrostatics/VR', 'MihirSrivastava-tech/V-One', 'pavancm/Stitched-Image-Quality-Evaluator', 'Ajedi32/echovr-tray-tool', 'davep/slstats.el', 'HugoFara/Lendemain-Soiree', 'AfterdarkGayveloper/VRHusbando', 'thephox1982/terranova-engine', 'thoreauA/cybercarpet-walker-position-control', 'sainiajay/Home-Decor', 'travisk23/Capstone_Source_Attribution_Analysis', 'MetaFactoryAI/wearables-nfts', 'cidelab/VRGenerativeArt', 'mdingena/att-voodoo', 'mdingena/att-string-transcoder', 'brainhack-ch/vr-ms', 'jonlourie/unirxScriptSamples', 'TypHo22/rocketSim-Animation', 'visitlab/caver-vr', 'joausaga/uturn', 'gdedi001/PortfolioVR', 'mulky5858/VirtualFurniture', 'UltimateRoman/VRkshop', 'Hitesh-Joshi15/DToy', 'CSM-Dream-Team/vr-independent-study', 'charlesdevandiere/vr-viewer', 'fazildgr8/VR_communication_mujoco200', 'Shivi55raghuvanshi/a-class-', 'Mramcharan/Mramcharan.github.io', 'vrapeutic/GardenDoWebXR', 'mnmitacm/Awesome-template-for-the-website', 'dfriedenberger/metaversum', 'michaltakac/unity-lbm-af', 'tecedufurb/vr-quiz-app', 'ayaemad/Virtual-Dressing', 'YahyaAlaaMassoud/Illy-Tale', 'jianzhi-1/battle-of-new-york', 'vishal1patidar/virtual_lover', 'TheoLvs/data-science-VR', 'zed9h/a-estrela-dormiu', 'selvakarna/Human-Pose-Tracking-Skeleton', 'EdificeVR/EdificeVR', 'OmarTag/VR-Design-Support-System', 'QiaoqianLin/FittsLaw']</t>
+  </si>
+  <si>
+    <t>['Vivero/Kerbal-VR', 'mauricesvay/awesome-vr-ux', 'TenteEEEE/IPD-Relativty', 'willneedit/AltSpaceMREs', 'urish/t-rex-vr', 'Ajedi32/echovr-api', 'onlyuser/MMDLoader', 'indyfree/MoleculeVR', 'NoahOrtega/NMSVRscreenshotfix-GUI-Version', 'Yoshey/AdvancedMovement', 'cabustillo13/Robot-Scara', '0fficerMike/Ragdoll-Playground', 'chrissbarr/VR-GCODE', 'PluralityNET/PluralityNET_VR', 'perseids-project/treebank-vr', 'JulioMontas/Virtual-Reality-Planet', 'LitttleLeah/haptechs', 'klingo/fhnw-mt-vr', 'eg0nSpengler/SmashTeeVeeVR', 'omimo/oVRView', 'DLR-SC/cnn-vis-vr']</t>
+  </si>
+  <si>
+    <t>['CAOR-MINES-ParisTech/colibri-vr-unity-package', 'GameLabGraz/Maroon', 'LokiResearch/RayCursor', 'ameliacode/Fine-Art-Virtual-Exhibition', 'utkarshShwetam/house-tour-VR', 'sayhitosandy/Airplane_Exploration_Setup', 'mad-lab-fau/StroopRoom', 'maxheyn/VR-Lofi-Project', 'ameliacode/VirtualReality', 'ShoaibKhan5/Graffiti-in-Virtual-Reality', 'New4rd/VR-study-Panoramic-videos', 'hahaxj/Unity3d_163_EXE', 'owen31302/JumpBox-VR', 'tejasparab1994/unity-virtual_reality', 'weiweitoo/VR-Hackathon']</t>
+  </si>
+  <si>
+    <t>['adrenak/UniVRMedia', 'kevinforrestconnors/OutcropVR', 'VR-Tracker/Plugins', 'lucascoelhof/VoronoiUnityTeleoperation', 'ddoak/peppy', 'mingwho/valleyofthewind', 'DevPika/cubismvr-level-editor', 'kevin-bruhwiler/Kowloon-Unity-Client', 'tterpi/VRSketchingGeometry', 'lorenzo-stacchio/Virtual_Augmented_Reality_Lab', 'Jack-Pettigrew/Unity-VR-Gesture-Based-Interaction-System', 'ManasUniyal/Friday', 'Djmcflush/Nero-Intelligence', 'Jack-C-Lloyd/Seequencer', 'Simon-Weng/Virtual-Reality-Labatory', 'aytona/VRScrollingUI']</t>
+  </si>
+  <si>
+    <t>['Utopiah/aframe-persist-component', 'Utopiah/aframe-soccer', 'Utopiah/StoryboardVR', 'Utopiah/aframe-slides-controls-component', 'uglykiki/visatopia.xyz']</t>
+  </si>
+  <si>
+    <t>['capnmidnight/Juniper', 'machuiwen/Digimon-Adventure-VR', 'alpertucanberk/Handtracking-Whiteboard-Oculus', 'krypten/OldMuseumVR', 'AtifMahmud/VRLivestream', 'kevinadhiguna/pesona-laut-unity']</t>
+  </si>
+  <si>
+    <t>['Devansh-Agarwal/Multi-Dimensional-Data-Visualizer-VR', 'Henrynaut/UnityBase', 'Schnigle/agi-spell-game', 'slashgk/MazeWalk-VR_Game', 'slashgk/Adrenaline-Rush-VR']</t>
+  </si>
+  <si>
+    <t>['rarora7777/smooth-closest-point', 'rarora7777/smooth-closest-point', 'eltrompetero/perception_neuron', 'eltrompetero/perception_neuron', 'barlettacarmen/FeelingsMatter', 'barlettacarmen/FeelingsMatter', 'lvrg12/VR_Project2', 'lvrg12/VR_Project2']</t>
+  </si>
+  <si>
+    <t>['sorianog/RollABallVR', 'iansmathew/Infinity-Rush-VR-Sem3', 'ameliacode/ColoringPotVR', 'sorianog/RollABallVR', 'iansmathew/Infinity-Rush-VR-Sem3', 'ameliacode/ColoringPotVR', 'Fizzr/CampfireVR', 'Aynur19/Unity_XR-Quest', 'Fizzr/CampfireVR', 'Aynur19/Unity_XR-Quest']</t>
+  </si>
+  <si>
+    <t>[('virtual-reality', 847), ('vr', 310), ('unity', 169), ('unity3d', 168), ('augmented-reality', 136), ('game', 108), ('web', 103), ('webvr', 87), ('aframe', 56), ('javascript', 55), ('oculus', 54), ('csharp', 54), ('threejs', 53), ('mixed-reality', 53), ('htc-vive', 50)]</t>
+  </si>
+  <si>
+    <t>[('augmented-reality', 16), ('virtual-reality', 16), ('web', 5), ('vision', 5), ('gamepad', 2), ('meta2', 2), ('web-api', 1), ('charts', 1), ('immersive-analytics', 1), ('vuforia', 1), ('cloud', 1), ('lmao', 1), ('ayyyyyyyyyyyyyyyy', 1), ('vape-nation', 1), ('multi-platform', 1)]</t>
+  </si>
+  <si>
+    <t>[('threejs', 5), ('vr', 5), ('webvr', 5), ('virtualreality', 5), ('aframe', 5), ('virtual-reality', 5), ('editor', 1), ('inspector', 1)]</t>
+  </si>
+  <si>
+    <t>[('virtual-reality', 66), ('web', 9), ('machinelearning', 4), ('data', 3), ('conversation', 2), ('cognitive', 2), ('watson-conversation', 2), ('watson-speech', 2), ('ibm-developer-technology-cognitive', 2), ('ibmcode', 2), ('virtual-worlds', 2), ('echo-vr', 2), ('vedio', 2), ('vrapeutic', 2), ('tensorflow2', 2)]</t>
+  </si>
+  <si>
+    <t>[('vr', 21), ('virtual-reality', 21), ('ksp', 1), ('kerbal-space-program', 1), ('vr-headset', 1), ('relativty', 1), ('altspace', 1), ('mre', 1), ('altspacevr', 1), ('t-rex-runner', 1), ('trex-vr', 1), ('api', 1), ('echo-arena', 1), ('echo-vr', 1), ('open-source', 1)]</t>
+  </si>
+  <si>
+    <t>[('unity3d', 15), ('virtual-reality', 15), ('specular', 1), ('image-based-rendering', 1), ('light-fields', 1), ('unity-package', 1), ('motion-parallax', 1), ('colibri-vr', 1), ('simulations', 1), ('physics-experiments', 1), ('user-interaction', 1), ('vr-application', 1), ('terrain', 1), ('stroop', 1), ('stroop-effect', 1)]</t>
+  </si>
+  <si>
+    <t>[('unity', 16), ('virtual-reality', 16), ('game', 2), ('vedio', 1), ('photogrammetry', 1), ('position-tracker', 1), ('ros', 1), ('voronoi-tessellation', 1), ('swarm-robotics', 1), ('structural-biology', 1), ('protein-structure', 1), ('biochemistry', 1), ('space', 1), ('gliding', 1), ('puzzle', 1)]</t>
+  </si>
+  <si>
+    <t>[('webvr', 5), ('aframe', 5), ('virtual-reality', 5), ('component', 2), ('localstorage', 1), ('prototype', 1), ('storyboard', 1), ('html-css', 1)]</t>
+  </si>
+  <si>
+    <t>[('unity', 6), ('vr', 6), ('virtual-reality', 6), ('netstandard20', 1), ('net472', 1), ('digimon', 1), ('digimon3d', 1), ('unity-vr', 1), ('tourism-industry', 1), ('udacity-vr-nanodegree', 1), ('livestream', 1), ('ocean', 1)]</t>
+  </si>
+  <si>
+    <t>[('csharp', 5), ('unity3d', 5), ('virtual-reality', 5), ('android', 1), ('vision', 1), ('videos', 1), ('data', 1), ('principal-component-analysis', 1), ('particle-system', 1)]</t>
+  </si>
+  <si>
+    <t>[('virtual-reality', 8), ('sketching', 2), ('geometry-processing', 2), ('closest-point', 2), ('research-project', 2), ('perception-neuron', 2), ('youtube', 2), ('emotiv-headset', 2), ('water-resources', 2), ('underground-water', 2)]</t>
+  </si>
+  <si>
+    <t>[('unity', 10), ('virtual-reality', 10), ('unity-tutorials', 2), ('game', 2), ('college-project', 2), ('unity-xr-interaction-toolkit', 2)]</t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,114 +477,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>409</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
